--- a/ResultadoEleicoesDistritos/GUARDA_AGUIAR DA BEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_AGUIAR DA BEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>1706</v>
       </c>
       <c r="H2" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="J2" t="n">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>183</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
         <v>82</v>
       </c>
       <c r="T2" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="U2" t="n">
         <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>1128</v>
+        <v>1083</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1045</v>
+        <v>1112</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
